--- a/biology/Botanique/Sapotaceae/Sapotaceae.xlsx
+++ b/biology/Botanique/Sapotaceae/Sapotaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Sapotaceae sont une famille de plantes à fleurs dicotylédones de l'ordre des Ericales, selon la classification phylogénétique, qui comprend approximativement 1273 à 2035 espèces réparties en 54 à 313 genres[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Sapotaceae sont une famille de plantes à fleurs dicotylédones de l'ordre des Ericales, selon la classification phylogénétique, qui comprend approximativement 1273 à 2035 espèces réparties en 54 à 313 genres.
 Ce sont des arbres ou des arbustes à feuilles persistantes des zones tropicales. Ils sont en général munis de laticifères (glandes à latex).
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient de Sapota, forme latinisée du mot tsapotl, en langue nahuatl, un des noms aztèque pour signifier « fruit doux et comestible »[3], que les espagnols ont dérivé en  zapote (es)[4] et utilisent comme nom vernaculaire pour désigner divers fruits tropicaux et subtropicaux charnus appartenant à plusieurs familles botaniques de Mésoamérique, du nord de l’Amérique du Sud et des Caraïbes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient de Sapota, forme latinisée du mot tsapotl, en langue nahuatl, un des noms aztèque pour signifier « fruit doux et comestible », que les espagnols ont dérivé en  zapote (es) et utilisent comme nom vernaculaire pour désigner divers fruits tropicaux et subtropicaux charnus appartenant à plusieurs familles botaniques de Mésoamérique, du nord de l’Amérique du Sud et des Caraïbes.
 La nomenclature botanique n’a pas retenu le nom Sapota au profit du genre Manilkara, de sorte que la famille ne porte pas un nom dérivé d’un des genres qu’elle contient. Le nom sapota a cependant été conservé comme épithète spécifique des espèces Manilkara zapota et Pouteria sapota.
 </t>
         </is>
@@ -544,10 +558,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique place cette famille dans l'ordre des Ericales.
-L'inclusion dans les Sapotaceae de l'hypothétique famille des Boerlagellaceae, arbres originaires de Malaisie, autrefois incertaine, a été confirmée par des analyses génétiques ; le genre Boerlagella (en) est ainsi devenu synonyme du genre Planchonella (en)[5].
+L'inclusion dans les Sapotaceae de l'hypothétique famille des Boerlagellaceae, arbres originaires de Malaisie, autrefois incertaine, a été confirmée par des analyses génétiques ; le genre Boerlagella (en) est ainsi devenu synonyme du genre Planchonella (en).
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Quelques genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dans cette famille on peut remarquer les genres :
 Manilkara, avec le sapotillier (Manilkara zapota), qui donne les sapotilles ;
@@ -620,9 +638,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (18 mai 2022)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (18 mai 2022) :
 Amorphospermum F.Muell. - 1 espèce
 Arganioxylon E.Biondi, 1981
 Arnoldoschultzea Mildbr. - 1 espèce
@@ -727,7 +747,7 @@
 Vitellaria C.F.Gaertn. - 6 espèces
 Vitellariopsis (Baill.) Dubard - 5 espèces
 Xantolis Raf. - 19 espèces
-Selon World Flora Online (WFO)       (18 mai 2022)[7] :
+Selon World Flora Online (WFO)       (18 mai 2022) :
 Argania Roem. &amp; Schult. 
 Aubregrinia Heine
 Aulandra H.J. Lam
@@ -787,7 +807,7 @@
 Vitellariopsis Baill. ex Dubard 
 Xantolis Raf.
 Zeyherella (Pierre ex Baill.) Aubrév. &amp; Pellegr.
-Selon Tropicos                                           (18 mai 2022)[8] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (18 mai 2022) (Attention liste brute contenant possiblement des synonymes) :
 Abebaia Baehni (1964)
 Achradelpha O.F. Cook (1913)
 Achradotypus Baill. (1890)
@@ -831,7 +851,7 @@
 Boerlagella Cogn. (1891)
 Boerlagia Pierre (1890)
 Boivinella (Pierre ex Baill.) Pierre ex Aubrév. &amp; Pellegr. (1958)
-Bracea King (1896 [1895])
+Bracea King (1896 )
 Breviea (Baehni) Aubrév. &amp; Pellegr. (1934)
 Bumelia Sw. (1788)
 Burckella Pierre (1890)
@@ -856,7 +876,7 @@
 Chelonespermum Hemsl. (1892)
 Chelonospermum Post &amp; Kuntze (1903)
 Chiclea Lundell (1976)
-Chloroluma Baill. (1892 [1891])
+Chloroluma Baill. (1892 )
 Chlorophyllum Liais (1872)
 Choetocarpus Cothen. (1790)
 Chorioluma Baill. (1891)
@@ -872,17 +892,17 @@
 Dactimala Raf. (1838)
 Daphniluma Baill. (1890)
 Dasillipe Dubard (1913)
-Dasyaulus Thwaites (1854 [1860])
+Dasyaulus Thwaites (1854 )
 Decateles Raf. (1838)
 Delastrea A. DC. (1844)
 Delpydora Pierre (1897)
 Delpydora A. Chev. (1917)
-Dichopsis Thwaites (1854 [1860])
+Dichopsis Thwaites (1854 )
 Dipholis A. DC. (1844)
 Diplocnema Post &amp; Kuntze (1903)
 Diploknema Pierre (1884)
 Diploon Cronquist (1946)
-Discoluma Baill. (1892 [1891])
+Discoluma Baill. (1892 )
 Dithecoluma Baill. (1891)
 Donella Pierre ex Baill. (1891)
 Dumoria A. Chev. (1907)
@@ -890,16 +910,16 @@
 Ecclimusa Mart. ex A. DC. (1844)
 Ecclinusa Mart. (1839)
 Edgeworthia Falc. (1842)
-Eglerodendron Aubrév. &amp; Pellegr. (1961 [1962])
+Eglerodendron Aubrév. &amp; Pellegr. (1961 )
 Eichleria M.M. Hartog (1878)
-Elaeoluma Baill. (1892 [1891])
+Elaeoluma Baill. (1892 )
 Elengi Adans. (1763)
 Endotricha Aubrév. &amp; Pellegr. (1935)
 Englerella Pierre (1891)
 Englerophytum K. Krause (1914)
-Epiluma Baill. (1891 [1892])
+Epiluma Baill. (1891 )
 Eremoluma Baill. (1891)
-Eremoluma Baill. (1892 [1891])
+Eremoluma Baill. (1892 )
 Faucherea Lecomte (1920)
 Fibocentrum Pierre &amp; Glaz. (1910)
 Fibrocentrum Pierre
@@ -913,11 +933,11 @@
 Gayella Pierre (1890)
 Gluema Aubrév. &amp; Pellegr. (1935)
 Glycoxylon Ducke (1922)
-Gomphiluma Baill. (1892 [1891])
+Gomphiluma Baill. (1892 )
 Guapeba Gomes (1812)
 Guapebeira Gomes (1812)
 Guersentia Raf. (1838)
-Gymnoluma Baill. (1892 [1891])
+Gymnoluma Baill. (1892 )
 Hapaloceras Hassk. (1859)
 Heteromera Montrouz. ex Beauvis. (1901)
 Hormogyne A. DC. (1844)
@@ -944,12 +964,12 @@
 Lasersisia Liben (1991)
 Lecomtedoxa (Pierre ex Engl.) Dubard (1914)
 Lecomteodoxa Dub. (1915)
-Leioluma Baill. (1892 [1891])
+Leioluma Baill. (1892 )
 Le-monniera Lecomte ex Baehni (1938)
 Le-monniera Lecomte (1918)
 Leptostylis Benth. (1876)
 Letestua Lecomte (1920)
-Lolanara Raf. (1836 [1837])
+Lolanara Raf. (1836 )
 Lucuma Molina (1782)
 Lyciodes Kuntze (1891)
 Madhuca Ham. ex J.F. Gmel. (1791)
@@ -964,7 +984,7 @@
 Mastichodendron (Engl.) H.J. Lam (1939)
 Meioluma Baill. (1891)
 Micadania R. Br. (1826)
-Microluma Baill. (1892 [1891])
+Microluma Baill. (1892 )
 Micropholis (Griseb.) Pierre (1891)
 Mimusops L. (1753)
 Mixandra Pierre ex L. Planch. (1888)
@@ -975,8 +995,8 @@
 Muriea M.M. Hartog (1878)
 Murieanthe Aubrév. (1963)
 Myrsiniluma Baill. (1891)
-Myrtiluma Baill. (1892 [1891])
-Nemaluma Baill. (1892 [1891])
+Myrtiluma Baill. (1892 )
+Nemaluma Baill. (1892 )
 Neoboivinella Aubrév. &amp; Pellegr. (1959)
 Neohemsleya T.D. Penn. (1991)
 Neolabatia Aubrév. (1972)
@@ -992,7 +1012,7 @@
 Nycterisition Schrad. (1799)
 Nycterisition Ruiz &amp; Pav. (1794)
 Nycterisitium Steud. (1821)
-Nycteristition Blume (1825 [1826])
+Nycteristition Blume (1825 )
 Nzidora A. Chev. (1951)
 Ochroluma Baill. (1890)
 Ochrothallus Pierre ex Planch. (1888)
@@ -1003,7 +1023,7 @@
 Pachystela Pierre ex Engl. (1904)
 Palaquium Blanco (1837)
 Paralabatia Pierre (1890)
-Paramicropholis Aubrév. &amp; Pellegr. (1961 [1962])
+Paramicropholis Aubrév. &amp; Pellegr. (1961 )
 Passaveria Mart. &amp; Eichler (1863)
 Payena A. DC. (1844)
 Payenia Post &amp; Kuntze (1903)
@@ -1017,9 +1037,9 @@
 Piresodendron Aubrév. (1963)
 Piresodendron Aubrév. ex Le Thomas (1983)
 Planchonella Pierre (1890)
-Platyluma Baill. (1892 [1891])
+Platyluma Baill. (1892 )
 Pleioluma (Baill.) Baehni (1965)
-Podoluma Baill. (1892 [1891])
+Podoluma Baill. (1892 )
 Poissonella Pierre (1890)
 Pometia Vell. (1825)
 Pouteria Aubl. (1775)
@@ -1027,10 +1047,10 @@
 Prieurella Pierre (1891)
 Protezia Neck. (1790)
 Prozetia Neck. (1790)
-Pseudoboivinella Aubrév. &amp; Pellegr. (1960 [1961])
+Pseudoboivinella Aubrév. &amp; Pellegr. (1960 )
 Pseudocladia Pierre (1891)
-Pseudolabatia Aubrév. &amp; Pellegr. (1961 [1962])
-Pseudopachystela Aubrév. &amp; Pellegr. (1960 [1961])
+Pseudolabatia Aubrév. &amp; Pellegr. (1961 )
+Pseudopachystela Aubrév. &amp; Pellegr. (1960 )
 Pseudoxythece Aubrév. (1972)
 Pycnandra Benth. (1876)
 Pyriluma (Baill.) Aubrév. (1967)
@@ -1046,7 +1066,7 @@
 Roemeria Thunb. (1798)
 Rogeonella A. Chev. (1943)
 Rostellaria C.F. Gaertn. (1807)
-Sandwithiodoxa Aubrév. &amp; Pellegr. (1961 [1962])
+Sandwithiodoxa Aubrév. &amp; Pellegr. (1961 )
 Sapota Mill. (1754)
 Sapota Plum. ex Mill. (1771)
 Sarcaulus Radlk. (1882)
@@ -1065,11 +1085,11 @@
 Sideroxilon Duhamel (1755)
 Sideroxylon L. (1753)
 Sideroxylum Mill. (1754)
-Sinosideroxylon (Engl.) Aubrév. (1963 [1963])
+Sinosideroxylon (Engl.) Aubrév. (1963 )
 Spiniluma (Baill.) Aubrév. (1963)
 Spondogona Raf. (1838)
 Sprucella Pierre (1890)
-Stephanoluma Baill. (1892 [1891])
+Stephanoluma Baill. (1892 )
 Stironeurum Radlk. ex De Wild. &amp; T. Durand (1899)
 Stisseria Scop. (1777)
 Syderoxylon Cramer (1803)
@@ -1101,7 +1121,7 @@
 Wokoia Baehni (1964)
 Xantolis Raf. (1838)
 Zeyherella (Pierre ex Baill.) Aubrév. &amp; Pellegr. (1958)
-Selon World Checklist of Selected Plant Families (WCSP)  (30 juin 2010)[9] :
+Selon World Checklist of Selected Plant Families (WCSP)  (30 juin 2010) :
 Argania Roem. &amp; Schult. (1819)
 Aubregrinia Heine (1960)
 Aulandra H.J.Lam (1927)
@@ -1159,7 +1179,7 @@
 Vitellaria C.F.Gaertn. (1807)
 Vitellariopsis (Baill.) Dubard (1915)
 Xantolis Raf. (1838)
-Selon Angiosperm Phylogeny Website                        (30 juin 2010)[10] :
+Selon Angiosperm Phylogeny Website                        (30 juin 2010) :
 Argania
 Aubregrinia
 Aulandra
@@ -1213,7 +1233,7 @@
 Vitellaria
 Vitellariopsis
 Xantolis
-Selon NCBI  (30 juin 2010)[11] :
+Selon NCBI  (30 juin 2010) :
 Argania
 Aubregrinia
 Autranella
@@ -1271,7 +1291,7 @@
 Vitellaria
 Vitellariopsis
 Xantolis
-Selon DELTA Angio           (30 juin 2010)[12] :
+Selon DELTA Angio           (30 juin 2010) :
 Achras
 Argania
 Aubregrinia
@@ -1327,7 +1347,7 @@
 Vitellaria
 Vitellariopsis
 Xantolis
-Selon ITIS      (30 juin 2010)[13] :
+Selon ITIS      (30 juin 2010) :
 Aesandra Pierre
 Baillonella Pierre
 Bumelia
